--- a/trend_results/Rivers/WaikawaatNorthManakauRoad_8072660ddf.xlsx
+++ b/trend_results/Rivers/WaikawaatNorthManakauRoad_8072660ddf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.156488352181617</v>
+        <v>0.8435116478183829</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.868526948015955</v>
+        <v>0.131473051984045</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.231216363225238</v>
+        <v>0.0004567817854896</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.641509433962264</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.64</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0111701219870281</v>
+        <v>0.185502202162202</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0371415131598283</v>
+        <v>0.0795424284932405</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0067368918738886</v>
+        <v>0.291759623768523</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.74533156047314</v>
+        <v>6.08203941515417</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1996,7 +1996,11 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2006,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.59675202974633</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2033,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>126</v>
+        <v>0.64</v>
       </c>
       <c r="K18" t="n">
-        <v>2.06323046946635</v>
+        <v>-0.0111701219870281</v>
       </c>
       <c r="L18" t="n">
-        <v>-15.382695808122</v>
+        <v>-0.0371415131598283</v>
       </c>
       <c r="M18" t="n">
-        <v>9.45519646532537</v>
+        <v>0.0067368918738886</v>
       </c>
       <c r="N18" t="n">
-        <v>1.63748449957647</v>
+        <v>-1.74533156047314</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2054,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2093,7 +2097,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2108,7 +2112,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.889664319040077</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2120,19 +2124,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>7.53</v>
+        <v>126</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09038706314090091</v>
+        <v>2.06323046946635</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.142133761566861</v>
+        <v>-15.382695808122</v>
       </c>
       <c r="M19" t="n">
-        <v>0.315757380608065</v>
+        <v>9.45519646532537</v>
       </c>
       <c r="N19" t="n">
-        <v>1.20035940426163</v>
+        <v>1.63748449957647</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2141,7 +2145,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,11 +2184,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2195,7 +2199,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.105248850027669</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2207,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6555</v>
+        <v>7.53</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0111705192034139</v>
+        <v>0.09038706314090091</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0189536061960319</v>
+        <v>-0.142133761566861</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0003403091567763</v>
+        <v>0.315757380608065</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.70412192271761</v>
+        <v>1.20035940426163</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2232,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2267,7 +2271,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,7 +2286,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5</v>
+        <v>0.105248850027669</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2294,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>129.5</v>
+        <v>0.6555</v>
       </c>
       <c r="K21" t="n">
-        <v>0.233430451127822</v>
+        <v>-0.0111705192034139</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.807415163630981</v>
+        <v>-0.0189536061960319</v>
       </c>
       <c r="M21" t="n">
-        <v>2.41381961817593</v>
+        <v>0.0003403091567763</v>
       </c>
       <c r="N21" t="n">
-        <v>0.180255174616079</v>
+        <v>-1.70412192271761</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2315,7 +2319,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2354,7 +2358,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2381,19 +2385,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.535</v>
+        <v>129.5</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0025849256900211</v>
+        <v>0.233430451127822</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0842805645117656</v>
+        <v>-0.807415163630981</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0368767993949489</v>
+        <v>2.41381961817593</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0343055831456029</v>
+        <v>0.180255174616079</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2432,6 +2436,180 @@
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7.535</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.0025849256900211</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.0842805645117656</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0368767993949489</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.0343055831456029</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>15</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.29146943500005</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>130</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.328757875787579</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.831198319603468</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.15769303031793</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.252890673682753</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/WaikawaatNorthManakauRoad_8072660ddf.xlsx
+++ b/trend_results/Rivers/WaikawaatNorthManakauRoad_8072660ddf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.978618063425442</v>
+        <v>0.952401201978179</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H2" t="n">
         <v>0.796610169491525</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.643817268570038</v>
+        <v>-0.501717032967033</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.28346322489921</v>
+        <v>-1.11695707532747</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.289869949160914</v>
+        <v>-0.0332953826381671</v>
       </c>
       <c r="N2" t="n">
-        <v>-17.168460495201</v>
+        <v>-16.1844204182914</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.948091385623014</v>
+        <v>0.999910533883363</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.37</v>
       </c>
       <c r="K3" t="n">
-        <v>0.175882825040128</v>
+        <v>0.443517857142857</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.277395462797742</v>
       </c>
       <c r="M3" t="n">
-        <v>0.359577007880882</v>
+        <v>0.622250249219758</v>
       </c>
       <c r="N3" t="n">
-        <v>5.6736395174235</v>
+        <v>13.1607672742688</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8435116478183829</v>
+        <v>0.469067134141493</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.927272727272727</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.95</v>
+        <v>10.77</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0288392597879127</v>
+        <v>-0.0062534587123403</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0298736870807875</v>
+        <v>-0.0695027465464326</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07525755494505509</v>
+        <v>0.0588530407453826</v>
       </c>
       <c r="N4" t="n">
-        <v>0.263372235506052</v>
+        <v>-0.0580636834943397</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.155566284277043</v>
+        <v>0.393139708573204</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0.0002731862378459</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0007492855204094</v>
+        <v>0.0004149773969244</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,17 +933,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.0421100853712218</v>
+        <v>0.173137135937223</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="H6" t="n">
-        <v>0.589285714285714</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -952,16 +952,16 @@
         <v>46</v>
       </c>
       <c r="K6" t="n">
-        <v>4.01373626373626</v>
+        <v>2.00686813186813</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-0.654605715635677</v>
       </c>
       <c r="M6" t="n">
-        <v>7.85773442013107</v>
+        <v>5.76795208808083</v>
       </c>
       <c r="N6" t="n">
-        <v>8.72551361681797</v>
+        <v>4.36275680840898</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.290325158419554</v>
+        <v>0.886095619229102</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9</v>
+        <v>0.903846153846154</v>
       </c>
       <c r="H7" t="n">
-        <v>0.14</v>
+        <v>0.134615384615385</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.720412010014683</v>
+        <v>0.998543877095603</v>
       </c>
       <c r="G8" t="n">
         <v>0.732142857142857</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.14217314175292</v>
+        <v>0.438865520750858</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.875</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0795</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0039945317840054</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0021203720323995</v>
+        <v>-0.0035936162727782</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0085697470518789</v>
+        <v>0.0065641653981205</v>
       </c>
       <c r="N9" t="n">
-        <v>5.02456828176788</v>
+        <v>0.721895011463357</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.131473051984045</v>
+        <v>0.033090465300496</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7962962962962959</v>
+        <v>0.8</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.555</v>
+        <v>7.53</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0313641686182668</v>
+        <v>-0.0449261992619925</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0727612404206719</v>
+        <v>-0.08181537083520229</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0137735506601829</v>
+        <v>-0.0067136555920255</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.415144521750719</v>
+        <v>-0.596629472270816</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.159369031882939</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.803571428571429</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.083</v>
+        <v>0.0785</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0050171703296703</v>
+        <v>0.0001661737943585</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0022159198404447</v>
+        <v>-0.004526615940258</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0111252023353174</v>
+        <v>0.0059725282802602</v>
       </c>
       <c r="N11" t="n">
-        <v>6.04478352972329</v>
+        <v>0.211686362240137</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,43 +1464,43 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.942039118318638</v>
+        <v>0.289599497087188</v>
       </c>
       <c r="G12" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0892857142857143</v>
+        <v>0.267857142857143</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.0025071600998372</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.009955537521962401</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,46 +1555,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.626003823608852</v>
+        <v>0.0484600423160867</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.25</v>
+        <v>0.303571428571429</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.14</v>
+        <v>0.014</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.000431227863046</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0050171703296703</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0018541736998212</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.08019902175746</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0174860727621058</v>
+        <v>0.99999716658227</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.25</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.014</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0005997536945812</v>
+        <v>-0.140990989942261</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0.191969793592545</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001137080034292</v>
+        <v>-0.09324167154984531</v>
       </c>
       <c r="N14" t="n">
-        <v>4.28395496129487</v>
+        <v>-20.5826262689432</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.943347384654795</v>
+        <v>0.342607902638626</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H15" t="n">
-        <v>0.857142857142857</v>
+        <v>0.698275862068966</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.73</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.06444852426096299</v>
+        <v>0.0550376712328768</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.140480769230769</v>
+        <v>-0.112122552498973</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.166694877353359</v>
       </c>
       <c r="N15" t="n">
-        <v>-8.8285649672552</v>
+        <v>1.59529481834425</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.574964629781745</v>
+        <v>0.0011059060994492</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0058479532163742</v>
       </c>
       <c r="H16" t="n">
-        <v>0.698275862068966</v>
+        <v>0.625730994152047</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0166882424611636</v>
+        <v>0.146910540915395</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.194139147044397</v>
+        <v>0.0552293763347877</v>
       </c>
       <c r="M16" t="n">
-        <v>0.165963075792093</v>
+        <v>0.228930058328058</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.470091336934185</v>
+        <v>4.9800183361151</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0004567817854896</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.641509433962264</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>0.64</v>
       </c>
       <c r="K17" t="n">
-        <v>0.185502202162202</v>
+        <v>0.0106894213366431</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0795424284932405</v>
+        <v>-0.0133745771235129</v>
       </c>
       <c r="M17" t="n">
-        <v>0.291759623768523</v>
+        <v>0.0292153749457159</v>
       </c>
       <c r="N17" t="n">
-        <v>6.08203941515417</v>
+        <v>1.67022208385048</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1996,11 +1996,7 @@
           <t>West_9a</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>mg/m2</t>
-        </is>
-      </c>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2010,7 +2006,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,7 +2021,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.231216363225238</v>
+        <v>0.5</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2037,19 +2033,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.64</v>
+        <v>129.17</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0111701219870281</v>
+        <v>0.06401512371566211</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0371415131598283</v>
+        <v>-15.4959029944148</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0067368918738886</v>
+        <v>6.74737150768196</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.74533156047314</v>
+        <v>0.0495588168426586</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2054,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2097,7 +2093,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,7 +2108,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.59675202974633</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2124,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>126</v>
+        <v>7.595</v>
       </c>
       <c r="K19" t="n">
-        <v>2.06323046946635</v>
+        <v>0.0500471292527081</v>
       </c>
       <c r="L19" t="n">
-        <v>-15.382695808122</v>
+        <v>-0.142133761566861</v>
       </c>
       <c r="M19" t="n">
-        <v>9.45519646532537</v>
+        <v>0.168681436574581</v>
       </c>
       <c r="N19" t="n">
-        <v>1.63748449957647</v>
+        <v>0.658948377257513</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2145,7 +2141,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2184,11 +2180,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2199,7 +2195,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.889664319040077</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2211,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7.53</v>
+        <v>0.6645</v>
       </c>
       <c r="K20" t="n">
-        <v>0.09038706314090091</v>
+        <v>-0.0111697247706422</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.142133761566861</v>
+        <v>-0.0188475732030093</v>
       </c>
       <c r="M20" t="n">
-        <v>0.315757380608065</v>
+        <v>0.0031728459872031</v>
       </c>
       <c r="N20" t="n">
-        <v>1.20035940426163</v>
+        <v>-1.68092171115759</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2232,7 +2228,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2267,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2286,7 +2282,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.105248850027669</v>
+        <v>0.5</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2298,19 +2294,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6555</v>
+        <v>129.585</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0111705192034139</v>
+        <v>-0.0928222596448269</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0189536061960319</v>
+        <v>-1.08352342615014</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0003403091567763</v>
+        <v>2.1947825633649</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.70412192271761</v>
+        <v>-0.0716304044795516</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2319,7 +2315,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2358,7 +2354,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2373,7 +2369,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5</v>
+        <v>0.8584345646688269</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2385,19 +2381,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>129.5</v>
+        <v>7.535</v>
       </c>
       <c r="K22" t="n">
-        <v>0.233430451127822</v>
+        <v>0.0224276315789472</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.807415163630981</v>
+        <v>-0.0297498672519984</v>
       </c>
       <c r="M22" t="n">
-        <v>2.41381961817593</v>
+        <v>0.07944729919246581</v>
       </c>
       <c r="N22" t="n">
-        <v>0.180255174616079</v>
+        <v>0.2976460727133</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2406,7 +2402,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2445,11 +2441,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2460,7 +2456,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.5</v>
+        <v>0.707964816527247</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2472,19 +2468,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7.535</v>
+        <v>0.6555</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0025849256900211</v>
+        <v>0.0030918453724604</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0842805645117656</v>
+        <v>-0.0061249835339435</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0368767993949489</v>
+        <v>0.0120602650987777</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0343055831456029</v>
+        <v>0.471677402358578</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2493,7 +2489,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2547,13 +2543,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.29146943500005</v>
+        <v>0.275819582543025</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.857142857142857</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2562,16 +2558,16 @@
         <v>130</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.328757875787579</v>
+        <v>-0.322944297082228</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.831198319603468</v>
+        <v>-0.830291257475859</v>
       </c>
       <c r="M24" t="n">
-        <v>1.15769303031793</v>
+        <v>0.818577091764361</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.252890673682753</v>
+        <v>-0.248418690063252</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2610,6 +2606,93 @@
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Waikawa at North Manakau Road</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>15</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.863219294137626</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7.535</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0310898652786282</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.0182053806112978</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0892456877502847</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.412606042184847</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>1788683</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5491286</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>West_9a</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/WaikawaatNorthManakauRoad_8072660ddf.xlsx
+++ b/trend_results/Rivers/WaikawaatNorthManakauRoad_8072660ddf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="65">
   <si>
     <t>site name</t>
   </si>
@@ -142,37 +142,40 @@
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Virtually certain improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
@@ -651,37 +654,37 @@
         <v>5</v>
       </c>
       <c r="D2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.952401201978179</v>
+        <v>0.183510045998688</v>
       </c>
       <c r="G2">
-        <v>0.0169491525423729</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H2">
-        <v>0.796610169491525</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>-0.501717032967033</v>
+        <v>0.212193447331427</v>
       </c>
       <c r="L2">
-        <v>-1.11695707532747</v>
+        <v>-0.177582712617271</v>
       </c>
       <c r="M2">
-        <v>-0.0332953826381671</v>
+        <v>0.774149790702056</v>
       </c>
       <c r="N2">
-        <v>-16.1844204182914</v>
+        <v>7.07311491104756</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -696,19 +699,19 @@
         <v>5491286</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,31 +731,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.999910533883363</v>
+        <v>0.973835944597803</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.8545454545454541</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="K3">
-        <v>0.443517857142857</v>
+        <v>0.244168956043956</v>
       </c>
       <c r="L3">
-        <v>0.277395462797742</v>
+        <v>0.0493100530648075</v>
       </c>
       <c r="M3">
-        <v>0.622250249219758</v>
+        <v>0.434821428571429</v>
       </c>
       <c r="N3">
-        <v>13.1607672742688</v>
+        <v>6.97625588697017</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -767,19 +770,19 @@
         <v>5491286</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -799,31 +802,31 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.469067134141493</v>
+        <v>0.8005707029531171</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9090909090909089</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.77</v>
+        <v>10.8</v>
       </c>
       <c r="K4">
-        <v>-0.0062534587123403</v>
+        <v>0.0367925824175822</v>
       </c>
       <c r="L4">
-        <v>-0.0695027465464326</v>
+        <v>-0.0263945588361987</v>
       </c>
       <c r="M4">
-        <v>0.0588530407453826</v>
+        <v>0.0833261163861739</v>
       </c>
       <c r="N4">
-        <v>-0.0580636834943397</v>
+        <v>0.340672059422058</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -838,19 +841,19 @@
         <v>5491286</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -870,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="F5">
-        <v>0.393139708573204</v>
+        <v>0.357766790897046</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -882,16 +885,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.0002731862378459</v>
+        <v>-0.0002322940616827</v>
       </c>
       <c r="M5">
-        <v>0.0004149773969244</v>
+        <v>0.0003504112123296</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -909,19 +912,19 @@
         <v>5491286</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -938,40 +941,40 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6">
-        <v>0.173137135937223</v>
+        <v>0.530932865858507</v>
       </c>
       <c r="G6">
-        <v>0.0357142857142857</v>
+        <v>0.0178571428571429</v>
       </c>
       <c r="H6">
-        <v>0.607142857142857</v>
+        <v>0.660714285714286</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>2.00686813186813</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.654605715635677</v>
+        <v>-6.95266266930046</v>
       </c>
       <c r="M6">
-        <v>5.76795208808083</v>
+        <v>2.13535710154415</v>
       </c>
       <c r="N6">
-        <v>4.36275680840898</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1788683</v>
@@ -980,19 +983,19 @@
         <v>5491286</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1009,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>0.886095619229102</v>
+        <v>0.999223892501537</v>
       </c>
       <c r="G7">
-        <v>0.903846153846154</v>
+        <v>0.907407407407407</v>
       </c>
       <c r="H7">
-        <v>0.134615384615385</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0.005</v>
@@ -1042,7 +1045,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1788683</v>
@@ -1051,19 +1054,19 @@
         <v>5491286</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1080,16 +1083,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8">
-        <v>0.998543877095603</v>
+        <v>0.999810027797123</v>
       </c>
       <c r="G8">
-        <v>0.732142857142857</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="H8">
-        <v>0.107142857142857</v>
+        <v>0.0892857142857143</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1113,7 +1116,7 @@
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>1788683</v>
@@ -1122,19 +1125,19 @@
         <v>5491286</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1154,37 +1157,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.438865520750858</v>
+        <v>0.916914947658562</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.857142857142857</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06950000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K9">
-        <v>0.0005017170329669999</v>
+        <v>-0.0045592926490984</v>
       </c>
       <c r="L9">
-        <v>-0.0035936162727782</v>
+        <v>-0.009889792562632701</v>
       </c>
       <c r="M9">
-        <v>0.0065641653981205</v>
+        <v>9.610318281066491E-05</v>
       </c>
       <c r="N9">
-        <v>0.721895011463357</v>
+        <v>-6.60767050593982</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>1788683</v>
@@ -1193,19 +1196,19 @@
         <v>5491286</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,31 +1228,31 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.033090465300496</v>
+        <v>0.220424826288441</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.53</v>
+        <v>7.525</v>
       </c>
       <c r="K10">
-        <v>-0.0449261992619925</v>
+        <v>-0.0179926108374382</v>
       </c>
       <c r="L10">
-        <v>-0.08181537083520229</v>
+        <v>-0.0541294730861736</v>
       </c>
       <c r="M10">
-        <v>-0.0067136555920255</v>
+        <v>0.020068681318681</v>
       </c>
       <c r="N10">
-        <v>-0.596629472270816</v>
+        <v>-0.239104462955989</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
@@ -1264,16 +1267,16 @@
         <v>5491286</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1293,37 +1296,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.994312855661347</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.910714285714286</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0785</v>
+        <v>0.0765</v>
       </c>
       <c r="K11">
-        <v>0.0001661737943585</v>
+        <v>-0.0060206043956044</v>
       </c>
       <c r="L11">
-        <v>-0.004526615940258</v>
+        <v>-0.0136433117939995</v>
       </c>
       <c r="M11">
-        <v>0.0059725282802602</v>
+        <v>-0.0021933595407187</v>
       </c>
       <c r="N11">
-        <v>0.211686362240137</v>
+        <v>-7.87007110536523</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>1788683</v>
@@ -1332,19 +1335,19 @@
         <v>5491286</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,40 +1364,40 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>0.289599497087188</v>
+        <v>0.7345420065056339</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.267857142857143</v>
+        <v>0.321428571428571</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-0.0024965823650034</v>
       </c>
       <c r="L12">
-        <v>-0.0025071600998372</v>
+        <v>-0.0099863315079258</v>
       </c>
       <c r="M12">
-        <v>0.009955537521962401</v>
+        <v>0.0033448505314306</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-1.92044797307955</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q12">
         <v>1788683</v>
@@ -1403,19 +1406,19 @@
         <v>5491286</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,7 +1438,7 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0484600423160867</v>
+        <v>0.06788681166122271</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1450,22 +1453,22 @@
         <v>0.014</v>
       </c>
       <c r="K13">
-        <v>0.000431227863046</v>
+        <v>0.0002923192203879</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.001003434065934</v>
+        <v>0.0008622636732878</v>
       </c>
       <c r="N13">
-        <v>3.08019902175746</v>
+        <v>2.08799443134231</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q13">
         <v>1788683</v>
@@ -1474,19 +1477,19 @@
         <v>5491286</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,37 +1509,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.99999716658227</v>
+        <v>0.999172685354254</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.857142857142857</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6850000000000001</v>
+        <v>0.585</v>
       </c>
       <c r="K14">
-        <v>-0.140990989942261</v>
+        <v>-0.0752457113550231</v>
       </c>
       <c r="L14">
-        <v>-0.191969793592545</v>
+        <v>-0.118290388618105</v>
       </c>
       <c r="M14">
-        <v>-0.09324167154984531</v>
+        <v>-0.0401373626373626</v>
       </c>
       <c r="N14">
-        <v>-20.5826262689432</v>
+        <v>-12.8625147615424</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1788683</v>
@@ -1545,19 +1548,19 @@
         <v>5491286</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,37 +1580,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.342607902638626</v>
+        <v>0.107000582474635</v>
       </c>
       <c r="G15">
         <v>0.0086206896551724</v>
       </c>
       <c r="H15">
-        <v>0.698275862068966</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K15">
-        <v>0.0550376712328768</v>
+        <v>0.09532623626373631</v>
       </c>
       <c r="L15">
-        <v>-0.112122552498973</v>
+        <v>-0.0300168011410803</v>
       </c>
       <c r="M15">
-        <v>0.166694877353359</v>
+        <v>0.248729623954673</v>
       </c>
       <c r="N15">
-        <v>1.59529481834425</v>
+        <v>2.88867382617383</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q15">
         <v>1788683</v>
@@ -1616,19 +1619,19 @@
         <v>5491286</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,37 +1651,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.0011059060994492</v>
+        <v>0.0008677914993042</v>
       </c>
       <c r="G16">
-        <v>0.0058479532163742</v>
+        <v>0.0057471264367816</v>
       </c>
       <c r="H16">
-        <v>0.625730994152047</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>2.95</v>
+        <v>3.075</v>
       </c>
       <c r="K16">
-        <v>0.146910540915395</v>
+        <v>0.15051510989011</v>
       </c>
       <c r="L16">
-        <v>0.0552293763347877</v>
+        <v>0.0563109315635838</v>
       </c>
       <c r="M16">
-        <v>0.228930058328058</v>
+        <v>0.228807601519777</v>
       </c>
       <c r="N16">
-        <v>4.9800183361151</v>
+        <v>4.89480032162959</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q16">
         <v>1788683</v>
@@ -1687,19 +1690,19 @@
         <v>5491286</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1719,7 +1722,7 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.768783636774762</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1731,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.64</v>
+        <v>0.656</v>
       </c>
       <c r="K17">
-        <v>0.0106894213366431</v>
+        <v>0.0090902231720224</v>
       </c>
       <c r="L17">
         <v>-0.0133745771235129</v>
       </c>
       <c r="M17">
-        <v>0.0292153749457159</v>
+        <v>0.0260995946593656</v>
       </c>
       <c r="N17">
-        <v>1.67022208385048</v>
+        <v>1.38570475183269</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q17">
         <v>1788683</v>
@@ -1758,16 +1761,16 @@
         <v>5491286</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1787,7 +1790,7 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1799,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>129.17</v>
+        <v>141.6</v>
       </c>
       <c r="K18">
-        <v>0.06401512371566211</v>
+        <v>-1.14423738990636</v>
       </c>
       <c r="L18">
         <v>-15.4959029944148</v>
       </c>
       <c r="M18">
-        <v>6.74737150768196</v>
+        <v>6.35494824784887</v>
       </c>
       <c r="N18">
-        <v>0.0495588168426586</v>
+        <v>-0.80807725275873</v>
       </c>
       <c r="O18" t="s">
         <v>44</v>
@@ -1826,16 +1829,16 @@
         <v>5491286</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1855,7 +1858,7 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.889664319040077</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1870,22 +1873,22 @@
         <v>7.595</v>
       </c>
       <c r="K19">
-        <v>0.0500471292527081</v>
+        <v>0.0155724243301247</v>
       </c>
       <c r="L19">
-        <v>-0.142133761566861</v>
+        <v>-0.261165704439463</v>
       </c>
       <c r="M19">
         <v>0.168681436574581</v>
       </c>
       <c r="N19">
-        <v>0.658948377257513</v>
+        <v>0.205035211719878</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1788683</v>
@@ -1894,16 +1897,16 @@
         <v>5491286</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1923,7 +1926,7 @@
         <v>40</v>
       </c>
       <c r="F20">
-        <v>0.141565435331173</v>
+        <v>0.07620314197837499</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1935,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6645</v>
+        <v>0.68</v>
       </c>
       <c r="K20">
         <v>-0.0111697247706422</v>
@@ -1944,16 +1947,16 @@
         <v>-0.0188475732030093</v>
       </c>
       <c r="M20">
-        <v>0.0031728459872031</v>
+        <v>0.0013581870432869</v>
       </c>
       <c r="N20">
-        <v>-1.68092171115759</v>
+        <v>-1.64260658391797</v>
       </c>
       <c r="O20" t="s">
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q20">
         <v>1788683</v>
@@ -1962,16 +1965,16 @@
         <v>5491286</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1991,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.639742606431872</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2003,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>129.585</v>
+        <v>131.585</v>
       </c>
       <c r="K21">
-        <v>-0.0928222596448269</v>
+        <v>0.233430451127822</v>
       </c>
       <c r="L21">
-        <v>-1.08352342615014</v>
+        <v>-1.33336640123035</v>
       </c>
       <c r="M21">
-        <v>2.1947825633649</v>
+        <v>2.52072991616749</v>
       </c>
       <c r="N21">
-        <v>-0.0716304044795516</v>
+        <v>0.17739898250395</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
@@ -2030,16 +2033,16 @@
         <v>5491286</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -2059,7 +2062,7 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.8584345646688269</v>
+        <v>0.704247481502542</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2077,10 +2080,10 @@
         <v>0.0224276315789472</v>
       </c>
       <c r="L22">
-        <v>-0.0297498672519984</v>
+        <v>-0.0431006402804074</v>
       </c>
       <c r="M22">
-        <v>0.07944729919246581</v>
+        <v>0.0727525520388338</v>
       </c>
       <c r="N22">
         <v>0.2976460727133</v>
@@ -2089,7 +2092,7 @@
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q22">
         <v>1788683</v>
@@ -2098,16 +2101,16 @@
         <v>5491286</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2127,7 +2130,7 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.707964816527247</v>
+        <v>0.785759790251002</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2139,25 +2142,25 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6555</v>
+        <v>0.656</v>
       </c>
       <c r="K23">
         <v>0.0030918453724604</v>
       </c>
       <c r="L23">
-        <v>-0.0061249835339435</v>
+        <v>-0.0039596375917543</v>
       </c>
       <c r="M23">
-        <v>0.0120602650987777</v>
+        <v>0.0106700588482724</v>
       </c>
       <c r="N23">
-        <v>0.471677402358578</v>
+        <v>0.471317892143365</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q23">
         <v>1788683</v>
@@ -2166,16 +2169,16 @@
         <v>5491286</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2195,13 +2198,13 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.275819582543025</v>
+        <v>0.292867606791531</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.866666666666667</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2210,22 +2213,22 @@
         <v>130</v>
       </c>
       <c r="K24">
-        <v>-0.322944297082228</v>
+        <v>-0.328757875787579</v>
       </c>
       <c r="L24">
-        <v>-0.830291257475859</v>
+        <v>-0.9436373798730811</v>
       </c>
       <c r="M24">
-        <v>0.818577091764361</v>
+        <v>0.859081209393687</v>
       </c>
       <c r="N24">
-        <v>-0.248418690063252</v>
+        <v>-0.252890673682753</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q24">
         <v>1788683</v>
@@ -2234,16 +2237,16 @@
         <v>5491286</v>
       </c>
       <c r="S24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2263,7 +2266,7 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.863219294137626</v>
+        <v>0.785759790251002</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2275,25 +2278,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.535</v>
+        <v>7.53</v>
       </c>
       <c r="K25">
-        <v>0.0310898652786282</v>
+        <v>0.0244587053571429</v>
       </c>
       <c r="L25">
-        <v>-0.0182053806112978</v>
+        <v>-0.0199063429506506</v>
       </c>
       <c r="M25">
-        <v>0.0892456877502847</v>
+        <v>0.0706584583820513</v>
       </c>
       <c r="N25">
-        <v>0.412606042184847</v>
+        <v>0.324816804211725</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q25">
         <v>1788683</v>
@@ -2302,16 +2305,16 @@
         <v>5491286</v>
       </c>
       <c r="S25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
